--- a/HRMS/MstEmployeeRegistration.xlsx
+++ b/HRMS/MstEmployeeRegistration.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$66</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="152">
   <si>
     <t>Table Name - MstEmployeeRegistration</t>
   </si>
@@ -299,13 +302,184 @@
   </si>
   <si>
     <t>EmpRegistrationType</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>Take EmpUniqueId as String.</t>
+  </si>
+  <si>
+    <t>Take FirstName as String.</t>
+  </si>
+  <si>
+    <t>Take MiddleName as String.</t>
+  </si>
+  <si>
+    <t>Take LastName as String.</t>
+  </si>
+  <si>
+    <t>Take FatherHusbandName as String.</t>
+  </si>
+  <si>
+    <t>Take IdentificationMark as String.</t>
+  </si>
+  <si>
+    <t>Take PAN as String.</t>
+  </si>
+  <si>
+    <t>Take Aadhaar as String.</t>
+  </si>
+  <si>
+    <t>Take SamagraIdNo as String.</t>
+  </si>
+  <si>
+    <t>Take EmpTreasuryCode as String.</t>
+  </si>
+  <si>
+    <t>Take Hobbies as String.</t>
+  </si>
+  <si>
+    <t>Take PresentAddressLine1 as String.</t>
+  </si>
+  <si>
+    <t>Take PresentAddressLine2 as String.</t>
+  </si>
+  <si>
+    <t>Take PresentAddPincode as String.</t>
+  </si>
+  <si>
+    <t>Take PermenentAddPincode as String.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take Age as Int.</t>
+  </si>
+  <si>
+    <t>Take Gender as Int.</t>
+  </si>
+  <si>
+    <t>Take Height as Decimal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get CasteId  (MstCaste) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get SubCaste  (MstSubCaste) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get ReligionId  (MstReligion) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get BloodGroupId  (MstBlood) in Numaric </t>
+  </si>
+  <si>
+    <t>For  IsHandicapped Check.</t>
+  </si>
+  <si>
+    <t>For  IsEserviceBookCertify Check.</t>
+  </si>
+  <si>
+    <t>For  IsPrPerAddressSame Check.</t>
+  </si>
+  <si>
+    <t>For  IsCriticalIllness Check.</t>
+  </si>
+  <si>
+    <t>Take MobileNo as String.</t>
+  </si>
+  <si>
+    <t>Take SpouseName as String.</t>
+  </si>
+  <si>
+    <t>For  IsSpouseGovtEmployee Check.</t>
+  </si>
+  <si>
+    <t>Take SpDepartmentName as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PresentAddDivision  (MstDivision) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PresentAddState  (MstState) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PresentAddDistrict  (MstDistricts) in Numaric </t>
+  </si>
+  <si>
+    <t>Take Married as String.</t>
+  </si>
+  <si>
+    <t>Take SpOfficeAddress as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PermenentAddState  (MstState) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PermenentAddDistrict  (MstDistricts) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PermenentAddDivision  (MstDivision) in Numaric </t>
+  </si>
+  <si>
+    <t>Take  as String.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>Take ImagePath as String.</t>
+  </si>
+  <si>
+    <t>Take EmpRank as String.</t>
+  </si>
+  <si>
+    <t>Take PranCode as String.</t>
+  </si>
+  <si>
+    <t>Take PermenentAddressLine2 as String.</t>
+  </si>
+  <si>
+    <t>Take ApplicationNo as String.</t>
+  </si>
+  <si>
+    <t>Take EmpRollNo as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PermenentAddBlockId  (MstBlock) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PresentAddBlockId  (MstBlock) in Numaric </t>
+  </si>
+  <si>
+    <t>Take HandicappedTypeId as Int.</t>
+  </si>
+  <si>
+    <t>Take CriticalillnessTypeId as Int.</t>
+  </si>
+  <si>
+    <t>Take HandicappedPercentageId as Int.</t>
+  </si>
+  <si>
+    <t>Take EmpRegistrationType as Int.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,13 +494,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -356,14 +542,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,6 +553,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,7 +873,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,1052 +882,1177 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>47</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="D51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="D52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="D54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="4">
         <v>51</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="8" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="A56" s="4">
         <v>52</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="D56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="D57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <v>54</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="D58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="D59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="A60" s="4">
         <v>56</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="D60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="D61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="D62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="8" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="D63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="D64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="A65" s="4">
         <v>61</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="4">
         <v>62</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F66"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>

--- a/HRMS/MstEmployeeRegistration.xlsx
+++ b/HRMS/MstEmployeeRegistration.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="153">
   <si>
     <t>Table Name - MstEmployeeRegistration</t>
   </si>
@@ -473,13 +473,16 @@
   </si>
   <si>
     <t>Take EmpRegistrationType as Int.</t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +503,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -515,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -538,11 +549,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,12 +601,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -566,6 +608,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,32 +943,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -949,7 +1006,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -967,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -985,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1003,7 +1060,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1021,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1039,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1057,7 +1114,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1075,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1093,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1111,7 +1168,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1119,7 +1176,7 @@
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1129,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1137,7 +1194,7 @@
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1147,7 +1204,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1155,7 +1212,7 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1165,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1183,7 +1240,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1191,7 +1248,7 @@
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1201,7 +1258,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1219,7 +1276,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1237,7 +1294,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1255,7 +1312,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1273,7 +1330,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1291,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1309,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1327,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1345,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1363,7 +1420,7 @@
         <v>22</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1381,7 +1438,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1399,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1417,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1425,7 +1482,7 @@
       <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1435,7 +1492,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1443,7 +1500,7 @@
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1453,7 +1510,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1461,7 +1518,7 @@
       <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1471,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1489,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1497,7 +1554,7 @@
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1507,7 +1564,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1515,7 +1572,7 @@
       <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1525,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1533,7 +1590,7 @@
       <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1543,7 +1600,7 @@
         <v>14</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1561,7 +1618,7 @@
         <v>22</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1579,7 +1636,7 @@
         <v>14</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1597,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1615,7 +1672,7 @@
         <v>22</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1633,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1651,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1669,7 +1726,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1687,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1705,7 +1762,7 @@
         <v>22</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1723,7 +1780,7 @@
         <v>22</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1741,7 +1798,7 @@
         <v>22</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1759,7 +1816,7 @@
         <v>22</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1777,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1795,7 +1852,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1813,7 +1870,7 @@
         <v>14</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1831,7 +1888,7 @@
         <v>14</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1849,7 +1906,7 @@
         <v>14</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1867,7 +1924,7 @@
         <v>14</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1875,7 +1932,7 @@
       <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -1885,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1903,7 +1960,7 @@
         <v>14</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1911,7 +1968,7 @@
       <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -1921,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1939,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1957,7 +2014,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1975,7 +2032,7 @@
         <v>14</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1993,7 +2050,7 @@
         <v>14</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2011,7 +2068,7 @@
         <v>14</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2029,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2047,15 +2104,26 @@
         <v>22</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="6" t="s">
         <v>151</v>
       </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:F66"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/MstEmployeeRegistration.xlsx
+++ b/HRMS/MstEmployeeRegistration.xlsx
@@ -22,9 +22,6 @@
     <t>Table Name - MstEmployeeRegistration</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में कर्मचारी पंजीकरण का विवरण  है।</t>
   </si>
 </sst>
 </file>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:F67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +954,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -972,22 +972,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,19 +995,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,17 +1015,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,17 +1033,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,17 +1051,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,17 +1069,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,17 +1087,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1105,17 +1105,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1123,17 +1123,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,17 +1141,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,17 +1159,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,17 +1177,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,17 +1195,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,17 +1213,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,17 +1231,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,17 +1249,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1267,17 +1267,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,17 +1285,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,17 +1303,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,17 +1321,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,17 +1339,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,17 +1357,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1375,17 +1375,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,17 +1393,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,17 +1411,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,17 +1429,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,17 +1447,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,17 +1465,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,17 +1483,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,17 +1501,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1519,17 +1519,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,17 +1537,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1555,17 +1555,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,17 +1573,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,17 +1591,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,17 +1609,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1627,17 +1627,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,17 +1645,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,17 +1663,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D42" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,17 +1681,17 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,17 +1699,17 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,17 +1717,17 @@
         <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,17 +1735,17 @@
         <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,17 +1753,17 @@
         <v>43</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,17 +1771,17 @@
         <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1789,17 +1789,17 @@
         <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,17 +1807,17 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,17 +1825,17 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,17 +1843,17 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1861,17 +1861,17 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,17 +1879,17 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1897,17 +1897,17 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="D55" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,17 +1915,17 @@
         <v>52</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,17 +1933,17 @@
         <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,17 +1951,17 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1969,17 +1969,17 @@
         <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1987,17 +1987,17 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,17 +2005,17 @@
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2023,17 +2023,17 @@
         <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,17 +2041,17 @@
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,17 +2059,17 @@
         <v>60</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,17 +2077,17 @@
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="D65" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,22 +2095,22 @@
         <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
